--- a/LANGUAGE/JAVASCRIPT/VUE/VUETIFY/API.xlsx
+++ b/LANGUAGE/JAVASCRIPT/VUE/VUETIFY/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPO\GIT_REPO\markdown\LANGUAGE\JAVASCRIPT\VUE\VUETIFY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B6C56A-6BE5-4A3C-AA20-7FD553DE8E25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D643EC98-8148-4466-A852-53191EDED6FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" activeTab="1" xr2:uid="{8A6F9E26-5F15-41DA-AF0B-8DF3C5FD2D85}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747EEE2C-5093-4F4F-9001-C9F1317CAF05}">
   <dimension ref="B2:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/LANGUAGE/JAVASCRIPT/VUE/VUETIFY/API.xlsx
+++ b/LANGUAGE/JAVASCRIPT/VUE/VUETIFY/API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPO\GIT_REPO\markdown\LANGUAGE\JAVASCRIPT\VUE\VUETIFY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D643EC98-8148-4466-A852-53191EDED6FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7A5D6D-32E8-42B8-86F8-42A52EBACADD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" activeTab="1" xr2:uid="{8A6F9E26-5F15-41DA-AF0B-8DF3C5FD2D85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{8A6F9E26-5F15-41DA-AF0B-8DF3C5FD2D85}"/>
   </bookViews>
   <sheets>
     <sheet name="컴포넌트" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">속성!$B$2:$K$108</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">컴포넌트!$B$2:$H$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">컴포넌트!$B$2:$H$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="260">
   <si>
     <t>v-app</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -887,6 +887,244 @@
   </si>
   <si>
     <t>The v-app-bar component is pivotal to any graphical user interface (GUI), as it generally is the primary source of site navigation. The app-bar component works great in conjunction with a v-navigation-drawer for providing site navigation in your application.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-rating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The rating component is a specialized but crucial piece in building user widgets. Collecting user feedback via ratings is a simple analytic that can provide a lot of feedback to your product or application.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급 구성 요소는 사용자 위젯을 구축하는 데있어 전문적이지만 중요한 부분
+평가를 통해 사용자 피드백을 수집하는 것은 제품 또는 애플리케이션에 많은 피드백을 제공 할 수있는 간단한 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;v-rating
+  color="primary"
+  hover
+  &gt;&lt;/v-rating&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The v-card component is a versatile component that can be used for anything from a panel to a static image. The card component has numerous helper components to make markup as easy as possible. Components that have no listed options use Vue’s functional component option for faster rendering and serve as markup sugar to make building easier. Try out an interactive screencast on how Vuetify cards work.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-card 구성 요소는 패널에서 정적 이미지에 이르기까지 모든 항목에 사용할 수있는 다목적 구성 요소
+카드 구성 요소에는 가능한 한 쉽게 마크업을 만들 수 있는 수많은 도우미 구성 요소
+나열된 옵션이 없는 구성 요소는 Vue의 기능 구성 요소 옵션을 사용하여 렌더링 속도를 높이고 마크 업 설탕 역할을하여 쉽게 빌드
+Vuetify 카드 작동 방식에 대한 대화형 스크린 캐스트를 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-card-subtitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The container used for placing actions for a card, such as v-btn or v-menu. Also applies special margin to buttons so that they properly line up with other card content areas.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provides a default font-size and padding for card subtitles. Font-size can be overwritten with typography classes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primarily used for text content in a card. Applies padding for text, reduces its font-size to .875rem.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provides a default font-size and padding for card titles. Font-size can be overwritten with typography classes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-btn 또는 v-menu와 같은 카드 작업을 배치하는 데 사용되는 컨테이너
+버튼에 특수 여백을 적용하여 다른 카드 콘텐츠 영역과 올바르게 정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주로 카드의 텍스트 콘텐츠에 사용
+텍스트에 패딩을 적용하고 글꼴 크기를 .875rem으로 줄임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 제목의 기본 글꼴 크기 및 패딩을 제공
+글꼴 크기는 타이포그래피 클래스로 덮어 씀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 자막의 기본 글꼴 크기 및 패딩을 제공
+글꼴 크기는 타이포그래피 클래스로 덮어 씀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The v-avatar component is typically used to display circular user profile pictures. This component will allow you to dynamically size and add a border radius of responsive images, icons, and text. A tile variation is available for displaying an avatar without border radius.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-avatar 구성 요소는 일반적으로 원형 사용자 프로필 사진을 표시하는 데 사용
+구성 요소를 사용하면 반응 형 이미지, 아이콘 및 텍스트의 테두리 반경을 동적으로 크기 조정하고 추가
+테두리 반경없이 아바타를 표시하기 위해 타일 변형을 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-autocomplete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-checkbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-combobox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-file-input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-overflow-btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-range-slider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-slider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-textarea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The v-autocomplete component offers simple and flexible type-ahead functionality. This is useful when searching large sets of data or even dynamically requesting information from an API.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The v-checkbox component provides users the ability to choose between two distinct values. These are very similar to a switch and can be used in complex forms and checklists. A simpler version, v-simple-checkbox is used primarily as a lightweight alternative in data-table components to select rows or display inline boolean data.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The v-combobox component is a v-autocomplete that allows the user to enter values that do not exist within the provided items. Created items will be returned as strings.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The v-file-input component is a specialized input that provides a clean interface for selecting files, showing detailed selection information and upload progress. It is meant to be a direct replacement for a standard file input.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The v-input component gives you a baseline to create your own custom inputs. It consists of a prepend/append slot, messages, and a default slot. It is recommended that you extend this component, but it can be used as a standalone.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-overflow-btn is used to give the user the ability to select items from the list. It has 3 variations: editable, overflow and segmented</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The v-radio component is a simple radio button. When combined with the v-radio-group component you can provide groupable functionality to allow users to select from a predefined set of options.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The v-slider component is a better visualization of the number input. It is used for gathering numerical user data.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select fields components are used for collecting user provided information from a list of options.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The v-switch component provides users the ability to choose between two distinct values. These are very similar to a toggle, or on/off switch, though aesthetically different than a checkbox.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Textarea components are used for collecting large amounts of textual data.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text fields components are used for collecting user provided information.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-overflow-btn은 사용자에게 목록에서 항목을 선택할 수있는 기능을 제공하는 데 사용됩니다. 3 가지 변형 : 편집 가능, 오버플로 및 분할</t>
+  </si>
+  <si>
+    <t>v-radio 구성 요소는 간단한 라디오 버튼입니다. v-radio-group 구성 요소와 결합하면 사용자가 미리 정의 된 옵션 세트에서 선택할 수 있도록 그룹화 가능한 기능을 제공 할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>v-slider 구성 요소는 숫자 입력을 더 잘 시각화합니다. 숫자 사용자 데이터를 수집하는 데 사용됩니다.</t>
+  </si>
+  <si>
+    <t>선택 필드 구성 요소는 옵션 목록에서 사용자 제공 정보를 수집하는 데 사용됩니다.</t>
+  </si>
+  <si>
+    <t>v-switch 구성 요소는 사용자에게 두 개의 고유 한 값 중에서 선택할 수있는 기능을 제공합니다. 체크 박스와는 미적으로 다르지만 토글 또는 켜기 / 끄기 스위치와 매우 유사합니다.</t>
+  </si>
+  <si>
+    <t>Textarea 구성 요소는 많은 양의 텍스트 데이터를 수집하는 데 사용됩니다.</t>
+  </si>
+  <si>
+    <t>텍스트 필드 구성 요소는 사용자가 제공 한 정보를 수집하는 데 사용됩니다.</t>
+  </si>
+  <si>
+    <t>v-autocomplete 구성 요소는 간단하고 유연한 자동 완성 기능을 제공
+대규모 데이터 세트를 검색하거나 API에서 정보를 동적으로 요청할 때 유용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v- 체크 박스 구성 요소는 사용자에게 두 개의 고유 한 값 중에서 선택할 수있는 기능을 제공
+스위치와 매우 유사하며 복잡한 양식과 체크리스트에서 사용
+더 간단한 버전 인 v-simple-checkbox는 주로 데이터 테이블 구성 요소에서 행을 선택하거나 인라인 부울 데이터를 표시하는 간단한 대안으로 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-simple-checkbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-combobox 구성 요소는 사용자가 제공된 항목 내에 존재하지 않는 값을 입력 할 수 있도록하는 v-autocomplete
+생성된 항목은 문자열로 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-file-input 구성 요소는 파일 선택을위한 깔끔한 인터페이스를 제공하는 특수 입력으로 자세한 선택 정보와 업로드 진행률을 보여줌
+표준 파일 입력을 직접 대체하기위한 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-input 구성 요소는 사용자 지정 입력을 생성 할 수있는 기준을 제공
+앞에 추가/추가 슬롯, 메시지 및 기본 슬롯으로 구성
+이 구성 요소를 확장하는 것이 좋지만 독립 실행형으로 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When it comes to form validation, Vuetify has a multitude of integrations and baked in functionality. Want to use a 3rd party validation plugin? Out of the box you can use Vee-validate and vuelidate.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양식 유효성 검사와 관련하여 Vuetify는 다양한 통합 기능을 제공
+기본적으로 Vee-validate 및 vuelidate를 사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1311,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF930EB-7FC3-4CB0-A7CF-7548F3708B2B}">
-  <dimension ref="B2:H37"/>
+  <dimension ref="B2:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1358,7 +1596,9 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>194</v>
       </c>
@@ -1593,7 +1833,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="36" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>61</v>
       </c>
@@ -1601,252 +1841,536 @@
         <v>30</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>258</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="36" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>96</v>
+        <v>223</v>
       </c>
       <c r="C20" s="1">
         <v>31</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="48" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>94</v>
+        <v>224</v>
       </c>
       <c r="C21" s="1">
         <v>31</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="48" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c r="C22" s="1">
         <v>31</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="36" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="C23" s="1">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>235</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="36" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="C24" s="1">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>236</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" ht="36" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="C25" s="1">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="E25" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>237</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
-        <v>60</v>
+        <v>228</v>
       </c>
       <c r="C26" s="1">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="E26" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="36" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C27" s="1">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="E27" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>239</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="36" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C28" s="1">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="E28" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>239</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="C29" s="1">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="E29" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="C30" s="1">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="E30" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="C31" s="1">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="E31" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" ht="36" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C32" s="1">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="E32" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>67</v>
+        <v>232</v>
       </c>
       <c r="C33" s="1">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="E33" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="E34" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C36" s="1">
-        <v>99</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" ht="36" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C37" s="1">
-        <v>99</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>213</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
+    <row r="38" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="B38" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="1">
+        <v>90</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="B39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="1">
+        <v>90</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="1">
+        <v>90</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="2:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="1">
+        <v>99</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="1">
+        <v>99</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="1">
+        <v>99</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1">
+        <v>99</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="2:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="B45" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45" s="1">
+        <v>99</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="1">
+        <v>99</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="1">
+        <v>99</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="1">
+        <v>99</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="1">
+        <v>99</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="1">
+        <v>99</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H37">
-    <sortCondition ref="C3:C37"/>
-    <sortCondition ref="B3:B37"/>
+  <autoFilter ref="B2:H50" xr:uid="{2B6067F9-C26D-4418-B088-E359E9A10B8A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H50">
+      <sortCondition ref="C3:C50"/>
+      <sortCondition ref="B3:B50"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H50">
+    <sortCondition ref="C3:C50"/>
+    <sortCondition ref="B3:B50"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1854,7 +2378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747EEE2C-5093-4F4F-9001-C9F1317CAF05}">
   <dimension ref="B2:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1926,7 +2450,7 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1">
-        <f>VLOOKUP(B3,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B3,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K3" s="1"/>
@@ -1955,7 +2479,7 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
-        <f>VLOOKUP(B4,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B4,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K4" s="1"/>
@@ -1982,7 +2506,7 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
-        <f>VLOOKUP(B5,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B5,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K5" s="1"/>
@@ -2009,7 +2533,7 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
-        <f>VLOOKUP(B6,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B6,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K6" s="1"/>
@@ -2036,7 +2560,7 @@
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
-        <f>VLOOKUP(B7,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B7,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K7" s="1"/>
@@ -2063,7 +2587,7 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1">
-        <f>VLOOKUP(B8,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B8,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K8" s="1"/>
@@ -2090,7 +2614,7 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1">
-        <f>VLOOKUP(B9,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B9,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -2121,7 +2645,7 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1">
-        <f>VLOOKUP(B10,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B10,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K10" s="1"/>
@@ -2150,7 +2674,7 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
-        <f>VLOOKUP(B11,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B11,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K11" s="1"/>
@@ -2179,7 +2703,7 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1">
-        <f>VLOOKUP(B12,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B12,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K12" s="1"/>
@@ -2200,7 +2724,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1">
-        <f>VLOOKUP(B13,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B13,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K13" s="1"/>
@@ -2229,7 +2753,7 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1">
-        <f>VLOOKUP(B14,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B14,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K14" s="1"/>
@@ -2258,7 +2782,7 @@
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1">
-        <f>VLOOKUP(B15,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B15,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K15" s="1"/>
@@ -2287,7 +2811,7 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1">
-        <f>VLOOKUP(B16,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B16,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K16" s="6" t="s">
@@ -2318,7 +2842,7 @@
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1">
-        <f>VLOOKUP(B17,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B17,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K17" s="1"/>
@@ -2347,7 +2871,7 @@
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1">
-        <f>VLOOKUP(B18,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B18,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K18" s="1"/>
@@ -2372,7 +2896,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
-        <f>VLOOKUP(B19,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B19,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K19" s="1"/>
@@ -2397,7 +2921,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1">
-        <f>VLOOKUP(B20,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B20,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K20" s="1"/>
@@ -2414,7 +2938,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1">
-        <f>VLOOKUP(B21,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B21,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="K21" s="1"/>
@@ -2443,7 +2967,7 @@
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1">
-        <f>VLOOKUP(B22,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B22,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="K22" s="1"/>
@@ -2472,7 +2996,7 @@
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1">
-        <f>VLOOKUP(B23,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B23,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="K23" s="1"/>
@@ -2501,7 +3025,7 @@
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1">
-        <f>VLOOKUP(B24,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B24,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="K24" s="1"/>
@@ -2530,7 +3054,7 @@
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1">
-        <f>VLOOKUP(B25,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B25,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K25" s="1"/>
@@ -2559,7 +3083,7 @@
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1">
-        <f>VLOOKUP(B26,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B26,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K26" s="1"/>
@@ -2588,7 +3112,7 @@
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1">
-        <f>VLOOKUP(B27,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B27,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="K27" s="1"/>
@@ -2617,7 +3141,7 @@
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1">
-        <f>VLOOKUP(B28,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B28,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="K28" s="1"/>
@@ -2646,7 +3170,7 @@
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1">
-        <f>VLOOKUP(B29,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B29,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="K29" s="1"/>
@@ -2675,7 +3199,7 @@
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1">
-        <f>VLOOKUP(B30,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B30,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>20</v>
       </c>
       <c r="K30" s="1"/>
@@ -2704,7 +3228,7 @@
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1">
-        <f>VLOOKUP(B31,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B31,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>20</v>
       </c>
       <c r="K31" s="6" t="s">
@@ -2735,7 +3259,7 @@
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1">
-        <f>VLOOKUP(B32,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B32,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>20</v>
       </c>
       <c r="K32" s="1"/>
@@ -2752,7 +3276,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1">
-        <f>VLOOKUP(B33,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B33,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>20</v>
       </c>
       <c r="K33" s="1"/>
@@ -2769,7 +3293,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1">
-        <f>VLOOKUP(B34,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B34,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>20</v>
       </c>
       <c r="K34" s="1"/>
@@ -2786,7 +3310,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1">
-        <f>VLOOKUP(B35,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B35,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>20</v>
       </c>
       <c r="K35" s="1"/>
@@ -2803,7 +3327,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1">
-        <f>VLOOKUP(B36,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B36,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>30</v>
       </c>
       <c r="K36" s="1"/>
@@ -2832,7 +3356,7 @@
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1">
-        <f>VLOOKUP(B37,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B37,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K37" s="1"/>
@@ -2861,7 +3385,7 @@
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1">
-        <f>VLOOKUP(B38,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B38,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K38" s="1"/>
@@ -2882,7 +3406,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1">
-        <f>VLOOKUP(B39,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B39,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K39" s="1"/>
@@ -2911,7 +3435,7 @@
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1">
-        <f>VLOOKUP(B40,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B40,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K40" s="1"/>
@@ -2940,7 +3464,7 @@
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1">
-        <f>VLOOKUP(B41,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B41,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K41" s="1"/>
@@ -2969,7 +3493,7 @@
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1">
-        <f>VLOOKUP(B42,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B42,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K42" s="1"/>
@@ -2998,7 +3522,7 @@
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1">
-        <f>VLOOKUP(B43,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B43,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K43" s="1"/>
@@ -3027,7 +3551,7 @@
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1">
-        <f>VLOOKUP(B44,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B44,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K44" s="1"/>
@@ -3056,7 +3580,7 @@
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1">
-        <f>VLOOKUP(B45,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B45,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K45" s="1"/>
@@ -3085,7 +3609,7 @@
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1">
-        <f>VLOOKUP(B46,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B46,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K46" s="1"/>
@@ -3114,7 +3638,7 @@
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1">
-        <f>VLOOKUP(B47,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B47,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K47" s="1"/>
@@ -3143,7 +3667,7 @@
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1">
-        <f>VLOOKUP(B48,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B48,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K48" s="1"/>
@@ -3172,7 +3696,7 @@
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1">
-        <f>VLOOKUP(B49,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B49,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K49" s="1"/>
@@ -3193,7 +3717,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1">
-        <f>VLOOKUP(B50,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B50,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>40</v>
       </c>
       <c r="K50" s="1"/>
@@ -3214,7 +3738,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1">
-        <f>VLOOKUP(B51,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B51,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>40</v>
       </c>
       <c r="K51" s="1"/>
@@ -3235,7 +3759,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1">
-        <f>VLOOKUP(B52,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B52,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>40</v>
       </c>
       <c r="K52" s="1"/>
@@ -3264,7 +3788,7 @@
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1">
-        <f>VLOOKUP(B53,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B53,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>40</v>
       </c>
       <c r="K53" s="1"/>
@@ -3293,7 +3817,7 @@
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1">
-        <f>VLOOKUP(B54,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B54,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>40</v>
       </c>
       <c r="K54" s="6" t="s">
@@ -3322,7 +3846,7 @@
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1">
-        <f>VLOOKUP(B55,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B55,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>40</v>
       </c>
       <c r="K55" s="1"/>
@@ -3349,7 +3873,7 @@
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1">
-        <f>VLOOKUP(B56,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B56,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>40</v>
       </c>
       <c r="K56" s="1"/>
@@ -3376,7 +3900,7 @@
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1">
-        <f>VLOOKUP(B57,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B57,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>40</v>
       </c>
       <c r="K57" s="1"/>
@@ -3403,7 +3927,7 @@
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1">
-        <f>VLOOKUP(B58,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B58,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>40</v>
       </c>
       <c r="K58" s="1"/>
@@ -3432,7 +3956,7 @@
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1">
-        <f>VLOOKUP(B59,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B59,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>40</v>
       </c>
       <c r="K59" s="1"/>
@@ -3449,7 +3973,7 @@
       <c r="H60" s="4"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1">
-        <f>VLOOKUP(B60,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B60,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>90</v>
       </c>
       <c r="K60" s="1"/>
@@ -3466,7 +3990,7 @@
       <c r="H61" s="7"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1">
-        <f>VLOOKUP(B61,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B61,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>90</v>
       </c>
       <c r="K61" s="1"/>
@@ -3483,7 +4007,7 @@
       <c r="H62" s="4"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1">
-        <f>VLOOKUP(B62,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B62,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>90</v>
       </c>
       <c r="K62" s="1"/>
@@ -3500,7 +4024,7 @@
       <c r="H63" s="4"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1">
-        <f>VLOOKUP(B63,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B63,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>90</v>
       </c>
       <c r="K63" s="1"/>
@@ -3521,7 +4045,7 @@
       <c r="H64" s="7"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1">
-        <f>VLOOKUP(B64,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B64,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K64" s="1"/>
@@ -3542,7 +4066,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1">
-        <f>VLOOKUP(B65,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B65,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K65" s="1"/>
@@ -3571,7 +4095,7 @@
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1">
-        <f>VLOOKUP(B66,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B66,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K66" s="6" t="s">
@@ -3594,7 +4118,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1">
-        <f>VLOOKUP(B67,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B67,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K67" s="1"/>
@@ -3611,7 +4135,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1">
-        <f>VLOOKUP(B68,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B68,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K68" s="1"/>
@@ -3628,7 +4152,7 @@
       <c r="H69" s="4"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1">
-        <f>VLOOKUP(B69,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B69,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K69" s="1"/>
@@ -3649,8 +4173,8 @@
       <c r="H70" s="7"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1">
-        <f>VLOOKUP(B70,컴포넌트!$B$3:$C$37,2,FALSE)</f>
-        <v>99</v>
+        <f>VLOOKUP(B70,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <v>31</v>
       </c>
       <c r="K70" s="1"/>
     </row>
@@ -3678,8 +4202,8 @@
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1">
-        <f>VLOOKUP(B71,컴포넌트!$B$3:$C$37,2,FALSE)</f>
-        <v>99</v>
+        <f>VLOOKUP(B71,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <v>31</v>
       </c>
       <c r="K71" s="1"/>
     </row>
@@ -3707,7 +4231,7 @@
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1">
-        <f>VLOOKUP(B72,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B72,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K72" s="1"/>
@@ -3736,7 +4260,7 @@
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1">
-        <f>VLOOKUP(B73,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B73,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K73" s="6" t="s">
@@ -3759,7 +4283,7 @@
       <c r="H74" s="7"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1">
-        <f>VLOOKUP(B74,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B74,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K74" s="1"/>
@@ -3776,7 +4300,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1">
-        <f>VLOOKUP(B75,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B75,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K75" s="1"/>
@@ -3801,7 +4325,7 @@
       <c r="H76" s="4"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1">
-        <f>VLOOKUP(B76,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B76,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K76" s="1"/>
@@ -3822,7 +4346,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1">
-        <f>VLOOKUP(B77,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B77,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K77" s="1"/>
@@ -3849,7 +4373,7 @@
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1">
-        <f>VLOOKUP(B78,컴포넌트!$B$3:$C$37,2,FALSE)</f>
+        <f>VLOOKUP(B78,컴포넌트!$B$3:$C$50,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K78" s="1"/>

--- a/LANGUAGE/JAVASCRIPT/VUE/VUETIFY/API.xlsx
+++ b/LANGUAGE/JAVASCRIPT/VUE/VUETIFY/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPO\GIT_REPO\markdown\LANGUAGE\JAVASCRIPT\VUE\VUETIFY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7A5D6D-32E8-42B8-86F8-42A52EBACADD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6083985-0966-4E88-8F2A-7BBBF57E9BF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{8A6F9E26-5F15-41DA-AF0B-8DF3C5FD2D85}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">속성!$B$2:$K$108</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">컴포넌트!$B$2:$H$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">컴포넌트!$B$2:$H$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="265">
   <si>
     <t>v-app</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1125,6 +1125,26 @@
   <si>
     <t>양식 유효성 검사와 관련하여 Vuetify는 다양한 통합 기능을 제공
 기본적으로 Vee-validate 및 vuelidate를 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-flex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1549,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF930EB-7FC3-4CB0-A7CF-7548F3708B2B}">
-  <dimension ref="B2:H50"/>
+  <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2118,85 +2138,85 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="C36" s="1">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>211</v>
+        <v>263</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" ht="36" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
       <c r="C37" s="1">
-        <v>90</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>217</v>
+        <v>51</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="C38" s="1">
-        <v>90</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>220</v>
+        <v>51</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C39" s="1">
         <v>90</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>56</v>
+      <c r="D39" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" ht="36" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C40" s="1">
         <v>90</v>
@@ -2205,109 +2225,119 @@
         <v>56</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="2:8" ht="48" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="C41" s="1">
-        <v>99</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>209</v>
+        <v>90</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C42" s="1">
-        <v>99</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1">
-        <v>99</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" ht="48" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="C44" s="1">
         <v>99</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="D44" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>221</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="2:8" ht="48" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="C45" s="1">
         <v>99</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>208</v>
-      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C46" s="1">
         <v>99</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C47" s="1">
         <v>99</v>
@@ -2318,22 +2348,30 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" ht="48" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="C48" s="1">
         <v>99</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C49" s="1">
         <v>99</v>
@@ -2346,7 +2384,7 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C50" s="1">
         <v>99</v>
@@ -2357,16 +2395,55 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="1">
+        <v>99</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="1">
+        <v>99</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="1">
+        <v>99</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:H50" xr:uid="{2B6067F9-C26D-4418-B088-E359E9A10B8A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H50">
-      <sortCondition ref="C3:C50"/>
-      <sortCondition ref="B3:B50"/>
+  <autoFilter ref="B2:H53" xr:uid="{2B6067F9-C26D-4418-B088-E359E9A10B8A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H53">
+      <sortCondition ref="C3:C53"/>
+      <sortCondition ref="B3:B53"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H50">
-    <sortCondition ref="C3:C50"/>
-    <sortCondition ref="B3:B50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H53">
+    <sortCondition ref="C3:C53"/>
+    <sortCondition ref="B3:B53"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2450,7 +2527,7 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1">
-        <f>VLOOKUP(B3,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B3,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K3" s="1"/>
@@ -2479,7 +2556,7 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
-        <f>VLOOKUP(B4,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B4,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K4" s="1"/>
@@ -2506,7 +2583,7 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
-        <f>VLOOKUP(B5,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B5,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K5" s="1"/>
@@ -2533,7 +2610,7 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
-        <f>VLOOKUP(B6,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B6,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K6" s="1"/>
@@ -2560,7 +2637,7 @@
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
-        <f>VLOOKUP(B7,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B7,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K7" s="1"/>
@@ -2587,7 +2664,7 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1">
-        <f>VLOOKUP(B8,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B8,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K8" s="1"/>
@@ -2614,7 +2691,7 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1">
-        <f>VLOOKUP(B9,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B9,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -2645,7 +2722,7 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1">
-        <f>VLOOKUP(B10,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B10,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K10" s="1"/>
@@ -2674,7 +2751,7 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
-        <f>VLOOKUP(B11,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B11,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K11" s="1"/>
@@ -2703,7 +2780,7 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1">
-        <f>VLOOKUP(B12,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B12,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K12" s="1"/>
@@ -2724,7 +2801,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1">
-        <f>VLOOKUP(B13,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B13,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K13" s="1"/>
@@ -2753,7 +2830,7 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1">
-        <f>VLOOKUP(B14,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B14,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K14" s="1"/>
@@ -2782,7 +2859,7 @@
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1">
-        <f>VLOOKUP(B15,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B15,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K15" s="1"/>
@@ -2811,7 +2888,7 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1">
-        <f>VLOOKUP(B16,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B16,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K16" s="6" t="s">
@@ -2842,7 +2919,7 @@
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1">
-        <f>VLOOKUP(B17,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B17,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K17" s="1"/>
@@ -2871,7 +2948,7 @@
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1">
-        <f>VLOOKUP(B18,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B18,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K18" s="1"/>
@@ -2896,7 +2973,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
-        <f>VLOOKUP(B19,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B19,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K19" s="1"/>
@@ -2921,7 +2998,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1">
-        <f>VLOOKUP(B20,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B20,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K20" s="1"/>
@@ -2938,7 +3015,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1">
-        <f>VLOOKUP(B21,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B21,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="K21" s="1"/>
@@ -2967,7 +3044,7 @@
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1">
-        <f>VLOOKUP(B22,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B22,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="K22" s="1"/>
@@ -2996,7 +3073,7 @@
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1">
-        <f>VLOOKUP(B23,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B23,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="K23" s="1"/>
@@ -3025,7 +3102,7 @@
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1">
-        <f>VLOOKUP(B24,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B24,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="K24" s="1"/>
@@ -3054,7 +3131,7 @@
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1">
-        <f>VLOOKUP(B25,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B25,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K25" s="1"/>
@@ -3083,7 +3160,7 @@
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1">
-        <f>VLOOKUP(B26,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B26,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K26" s="1"/>
@@ -3112,7 +3189,7 @@
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1">
-        <f>VLOOKUP(B27,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B27,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="K27" s="1"/>
@@ -3141,7 +3218,7 @@
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1">
-        <f>VLOOKUP(B28,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B28,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="K28" s="1"/>
@@ -3170,7 +3247,7 @@
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1">
-        <f>VLOOKUP(B29,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B29,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="K29" s="1"/>
@@ -3199,7 +3276,7 @@
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1">
-        <f>VLOOKUP(B30,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B30,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>20</v>
       </c>
       <c r="K30" s="1"/>
@@ -3228,7 +3305,7 @@
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1">
-        <f>VLOOKUP(B31,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B31,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>20</v>
       </c>
       <c r="K31" s="6" t="s">
@@ -3259,7 +3336,7 @@
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1">
-        <f>VLOOKUP(B32,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B32,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>20</v>
       </c>
       <c r="K32" s="1"/>
@@ -3276,7 +3353,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1">
-        <f>VLOOKUP(B33,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B33,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>20</v>
       </c>
       <c r="K33" s="1"/>
@@ -3293,7 +3370,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1">
-        <f>VLOOKUP(B34,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B34,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>20</v>
       </c>
       <c r="K34" s="1"/>
@@ -3310,7 +3387,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1">
-        <f>VLOOKUP(B35,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B35,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>20</v>
       </c>
       <c r="K35" s="1"/>
@@ -3327,7 +3404,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1">
-        <f>VLOOKUP(B36,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B36,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>30</v>
       </c>
       <c r="K36" s="1"/>
@@ -3356,7 +3433,7 @@
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1">
-        <f>VLOOKUP(B37,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B37,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K37" s="1"/>
@@ -3385,7 +3462,7 @@
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1">
-        <f>VLOOKUP(B38,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B38,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K38" s="1"/>
@@ -3406,7 +3483,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1">
-        <f>VLOOKUP(B39,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B39,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K39" s="1"/>
@@ -3435,7 +3512,7 @@
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1">
-        <f>VLOOKUP(B40,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B40,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K40" s="1"/>
@@ -3464,7 +3541,7 @@
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1">
-        <f>VLOOKUP(B41,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B41,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K41" s="1"/>
@@ -3493,7 +3570,7 @@
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1">
-        <f>VLOOKUP(B42,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B42,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K42" s="1"/>
@@ -3522,7 +3599,7 @@
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1">
-        <f>VLOOKUP(B43,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B43,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K43" s="1"/>
@@ -3551,7 +3628,7 @@
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1">
-        <f>VLOOKUP(B44,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B44,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K44" s="1"/>
@@ -3580,7 +3657,7 @@
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1">
-        <f>VLOOKUP(B45,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B45,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K45" s="1"/>
@@ -3609,7 +3686,7 @@
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1">
-        <f>VLOOKUP(B46,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B46,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K46" s="1"/>
@@ -3638,7 +3715,7 @@
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1">
-        <f>VLOOKUP(B47,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B47,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K47" s="1"/>
@@ -3667,7 +3744,7 @@
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1">
-        <f>VLOOKUP(B48,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B48,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K48" s="1"/>
@@ -3696,7 +3773,7 @@
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1">
-        <f>VLOOKUP(B49,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B49,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K49" s="1"/>
@@ -3717,7 +3794,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1">
-        <f>VLOOKUP(B50,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B50,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>40</v>
       </c>
       <c r="K50" s="1"/>
@@ -3738,7 +3815,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1">
-        <f>VLOOKUP(B51,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B51,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>40</v>
       </c>
       <c r="K51" s="1"/>
@@ -3759,7 +3836,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1">
-        <f>VLOOKUP(B52,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B52,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>40</v>
       </c>
       <c r="K52" s="1"/>
@@ -3788,7 +3865,7 @@
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1">
-        <f>VLOOKUP(B53,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B53,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>40</v>
       </c>
       <c r="K53" s="1"/>
@@ -3817,7 +3894,7 @@
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1">
-        <f>VLOOKUP(B54,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B54,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>40</v>
       </c>
       <c r="K54" s="6" t="s">
@@ -3846,7 +3923,7 @@
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1">
-        <f>VLOOKUP(B55,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B55,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>40</v>
       </c>
       <c r="K55" s="1"/>
@@ -3873,7 +3950,7 @@
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1">
-        <f>VLOOKUP(B56,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B56,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>40</v>
       </c>
       <c r="K56" s="1"/>
@@ -3900,7 +3977,7 @@
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1">
-        <f>VLOOKUP(B57,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B57,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>40</v>
       </c>
       <c r="K57" s="1"/>
@@ -3927,7 +4004,7 @@
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1">
-        <f>VLOOKUP(B58,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B58,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>40</v>
       </c>
       <c r="K58" s="1"/>
@@ -3956,7 +4033,7 @@
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1">
-        <f>VLOOKUP(B59,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B59,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>40</v>
       </c>
       <c r="K59" s="1"/>
@@ -3973,7 +4050,7 @@
       <c r="H60" s="4"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1">
-        <f>VLOOKUP(B60,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B60,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>90</v>
       </c>
       <c r="K60" s="1"/>
@@ -3990,7 +4067,7 @@
       <c r="H61" s="7"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1">
-        <f>VLOOKUP(B61,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B61,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>90</v>
       </c>
       <c r="K61" s="1"/>
@@ -4007,7 +4084,7 @@
       <c r="H62" s="4"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1">
-        <f>VLOOKUP(B62,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B62,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>90</v>
       </c>
       <c r="K62" s="1"/>
@@ -4024,7 +4101,7 @@
       <c r="H63" s="4"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1">
-        <f>VLOOKUP(B63,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B63,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>90</v>
       </c>
       <c r="K63" s="1"/>
@@ -4045,7 +4122,7 @@
       <c r="H64" s="7"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1">
-        <f>VLOOKUP(B64,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B64,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K64" s="1"/>
@@ -4066,7 +4143,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1">
-        <f>VLOOKUP(B65,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B65,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K65" s="1"/>
@@ -4095,7 +4172,7 @@
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1">
-        <f>VLOOKUP(B66,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B66,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K66" s="6" t="s">
@@ -4118,7 +4195,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1">
-        <f>VLOOKUP(B67,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B67,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K67" s="1"/>
@@ -4135,7 +4212,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1">
-        <f>VLOOKUP(B68,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B68,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K68" s="1"/>
@@ -4152,7 +4229,7 @@
       <c r="H69" s="4"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1">
-        <f>VLOOKUP(B69,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B69,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K69" s="1"/>
@@ -4173,7 +4250,7 @@
       <c r="H70" s="7"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1">
-        <f>VLOOKUP(B70,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B70,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K70" s="1"/>
@@ -4202,7 +4279,7 @@
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1">
-        <f>VLOOKUP(B71,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B71,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K71" s="1"/>
@@ -4231,7 +4308,7 @@
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1">
-        <f>VLOOKUP(B72,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B72,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K72" s="1"/>
@@ -4260,7 +4337,7 @@
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1">
-        <f>VLOOKUP(B73,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B73,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K73" s="6" t="s">
@@ -4283,7 +4360,7 @@
       <c r="H74" s="7"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1">
-        <f>VLOOKUP(B74,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B74,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K74" s="1"/>
@@ -4300,7 +4377,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1">
-        <f>VLOOKUP(B75,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B75,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K75" s="1"/>
@@ -4325,7 +4402,7 @@
       <c r="H76" s="4"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1">
-        <f>VLOOKUP(B76,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B76,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K76" s="1"/>
@@ -4346,7 +4423,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1">
-        <f>VLOOKUP(B77,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B77,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K77" s="1"/>
@@ -4373,7 +4450,7 @@
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1">
-        <f>VLOOKUP(B78,컴포넌트!$B$3:$C$50,2,FALSE)</f>
+        <f>VLOOKUP(B78,컴포넌트!$B$3:$C$53,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K78" s="1"/>

--- a/LANGUAGE/JAVASCRIPT/VUE/VUETIFY/API.xlsx
+++ b/LANGUAGE/JAVASCRIPT/VUE/VUETIFY/API.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPO\GIT_REPO\markdown\LANGUAGE\JAVASCRIPT\VUE\VUETIFY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6083985-0966-4E88-8F2A-7BBBF57E9BF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416C7D82-E37A-4197-92DD-F682048622C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{8A6F9E26-5F15-41DA-AF0B-8DF3C5FD2D85}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="속성" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">속성!$B$2:$K$108</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">컴포넌트!$B$2:$H$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">속성!$B$2:$K$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">컴포넌트!$B$2:$H$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="311">
   <si>
     <t>v-app</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1147,12 +1147,213 @@
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>v-fab-transition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-fade-transition</t>
+  </si>
+  <si>
+    <t>v-expand-transition</t>
+  </si>
+  <si>
+    <t>v-scale-transition</t>
+  </si>
+  <si>
+    <t>v-scroll-x-transition</t>
+  </si>
+  <si>
+    <t>v-scroll-x-reverse-transition</t>
+  </si>
+  <si>
+    <t>v-scroll-y-transition</t>
+  </si>
+  <si>
+    <t>v-scroll-y-reverse-transition</t>
+  </si>
+  <si>
+    <t>v-slide-x-transition</t>
+  </si>
+  <si>
+    <t>v-slide-x-reverse-transition</t>
+  </si>
+  <si>
+    <t>v-slide-y-transition</t>
+  </si>
+  <si>
+    <t>v-slide-y-reverse-transition</t>
+  </si>
+  <si>
+    <t>v-expand-x-transition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;v-menu transition="fab-transition"&gt;
+      &lt;template v-slot:activator="{ on, attrs }"&gt;
+        &lt;v-btn&gt;Fab Transition&lt;/v-btn&gt;
+      &lt;/template&gt;
+      &lt;v-list&gt;
+      &lt;/v-list&gt;
+&lt;/v-menu&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;v-menu transition="fade-transition"&gt;
+      &lt;template v-slot:activator="{ on, attrs }"&gt;
+        &lt;v-btn&gt;Fab Transition&lt;/v-btn&gt;
+      &lt;/template&gt;
+      &lt;v-list&gt;
+      &lt;/v-list&gt;
+&lt;/v-menu&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확장 전환은 확장 패널 및 목록 그룹에서 사용
+v-expand-x-transition과 함께 사용할 수있는 수평 버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The expand transition is used in Expansion Panels and List Groups. There is also a horizontal version available with v-expand-x-transition.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;v-col class="shrink"&gt;
+      &lt;v-btn&gt;Expand X Transition&lt;/v-btn&gt;
+      &lt;v-expand-x-transition&gt;
+        &lt;v-card&gt;&lt;/v-card&gt;
+      &lt;/v-expand-x-transition&gt;
+&lt;/v-col&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;v-col class="shrink"&gt;
+      &lt;v-btn&gt;Expand Transition&lt;/v-btn&gt;
+      &lt;v-expand-transition&gt;
+        &lt;v-card&gt;&lt;/v-card&gt;
+      &lt;/v-expand-transition&gt;
+&lt;/v-col&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smooth animations help make a UI feel great. Using Vue’s transition system and re-usable functional components, you can easily control the motion of your application. Most components can have their transition altered through the transition prop.
+An example of the fab transition can be found in the v-speed-dial component.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An example of the fade transition can be found on the Carousel component.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드 전환의 예는 Carousel 구성 요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부드러운 애니메이션은 UI를 멋지게 만드는 데 도움
+Vue의 전환 시스템과 재사용 가능한 기능 구성 요소를 사용하면 애플리케이션의 동작을 쉽게 제어
+대부분의 구성 요소는 전환 소품을 통해 전환을 변경
+팹 전환의 예는 v-speed-dial 구성 요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Many of Vuetify’s components contain a transition prop which allows you to specify your own.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll X transitions continue along the horizontal axis.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll Y transitions continue along the vertical axis.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slide x transitions move along the horizontal axis.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations use the application’s $primary-transition.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vuetify의 많은 구성 요소에는 자신을 지정할 수있는 전환 소품이 포함되어 있습니다.</t>
+  </si>
+  <si>
+    <t>스크롤 X 전환은 수평 축을 따라 계속됩니다.</t>
+  </si>
+  <si>
+    <t>스크롤 Y 전환은 수직 축을 따라 계속됩니다.</t>
+  </si>
+  <si>
+    <t>슬라이드 x 전환은 수평 축을 따라 이동합니다.</t>
+  </si>
+  <si>
+    <t>애니메이션은 애플리케이션의 $ primary-transition을 사용합니다.</t>
+  </si>
+  <si>
+    <t>The v-list component is used to display information. It can contain an avatar, content, actions, subheaders and much more. Lists present content in a way that makes it easy to identify a specific item in a collection. They provide a consistent styling for organizing groups of text and images.
+Lists come in three main variations. single-line (default), two-line and three-line. The line declaration specifies the minimum height of the item and can also be controlled from v-list with the same prop.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-list 구성 요소는 정보를 표시하는 데 사용
+아바타, 콘텐츠, 작업, 하위 헤더 등이 포함
+목록은 컬렉션의 특정 항목을 쉽게 식별 할 수있는 방식으로 콘텐츠를 제공
+텍스트 및 이미지 그룹을 구성하기위한 일관된 스타일을 제공
+목록은 세 가지 주요 변형으로 제공
+한 줄 (기본값), 두 줄 및 세 줄. 라인 선언은 항목의 최소 높이를 지정하며 동일한 prop으로 v-list에서 제어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rounded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shaped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no-action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub-group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>three-line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two-line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subheader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-list-item-icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-list-item-avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1184,6 +1385,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF669900"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1226,7 +1433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1253,6 +1460,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1569,15 +1779,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF930EB-7FC3-4CB0-A7CF-7548F3708B2B}">
-  <dimension ref="B2:H53"/>
+  <dimension ref="B2:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="63.125" customWidth="1"/>
@@ -1775,7 +1985,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="96" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1783,8 +1993,12 @@
         <v>20</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
@@ -1793,7 +2007,7 @@
         <v>100</v>
       </c>
       <c r="C14" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
@@ -1806,7 +2020,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
@@ -1819,7 +2033,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
@@ -1832,7 +2046,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
@@ -1845,7 +2059,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
@@ -1853,213 +2067,205 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:8" ht="36" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>61</v>
+        <v>309</v>
       </c>
       <c r="C19" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>258</v>
-      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:8" ht="36" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>223</v>
+        <v>310</v>
       </c>
       <c r="C20" s="1">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:8" ht="48" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="36" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>224</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:8" ht="48" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="36" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="C22" s="1">
         <v>31</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:8" ht="36" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="48" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C23" s="1">
         <v>31</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:8" ht="36" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="48" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="C24" s="1">
         <v>31</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="2:8" ht="36" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C25" s="1">
         <v>31</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="36" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C26" s="1">
         <v>31</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="4" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="2:8" ht="36" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
-        <v>96</v>
+        <v>227</v>
       </c>
       <c r="C27" s="1">
         <v>31</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="4" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:8" ht="36" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>94</v>
+        <v>228</v>
       </c>
       <c r="C28" s="1">
         <v>31</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="36" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>229</v>
+        <v>96</v>
       </c>
       <c r="C29" s="1">
         <v>31</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" ht="36" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>230</v>
+        <v>94</v>
       </c>
       <c r="C30" s="1">
         <v>31</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C31" s="1">
         <v>31</v>
@@ -2074,117 +2280,113 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:8" ht="36" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="C32" s="1">
         <v>31</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C33" s="1">
         <v>31</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" ht="36" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C34" s="1">
         <v>31</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="C35" s="1">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
-        <v>260</v>
+        <v>69</v>
       </c>
       <c r="C36" s="1">
-        <v>50</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>264</v>
+        <v>31</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1">
-        <v>51</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C38" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>264</v>
@@ -2195,255 +2397,548 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="2:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
-        <v>56</v>
+        <v>261</v>
       </c>
       <c r="C39" s="1">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>211</v>
+        <v>260</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="2:8" ht="36" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>62</v>
+        <v>262</v>
       </c>
       <c r="C40" s="1">
-        <v>90</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>217</v>
+        <v>51</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" ht="84" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="C41" s="1">
-        <v>90</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>56</v>
+        <v>80</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="2:8" ht="84" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>60</v>
+        <v>266</v>
       </c>
       <c r="C42" s="1">
-        <v>90</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>56</v>
+        <v>80</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>218</v>
+        <v>287</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G42" s="1"/>
+        <v>286</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="C43" s="1">
-        <v>90</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>56</v>
+        <v>81</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G43" s="1"/>
+        <v>281</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" ht="48" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="C44" s="1">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G44" s="1"/>
+        <v>281</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="C45" s="1">
-        <v>99</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>83</v>
+        <v>269</v>
       </c>
       <c r="C46" s="1">
-        <v>99</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="C47" s="1">
-        <v>99</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="2:8" ht="48" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="C48" s="1">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>207</v>
+        <v>284</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>208</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>52</v>
+        <v>272</v>
       </c>
       <c r="C49" s="1">
-        <v>99</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>291</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>67</v>
+        <v>273</v>
       </c>
       <c r="C50" s="1">
-        <v>99</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>57</v>
+        <v>274</v>
       </c>
       <c r="C51" s="1">
-        <v>99</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>31</v>
+        <v>275</v>
       </c>
       <c r="C52" s="1">
-        <v>99</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="C53" s="1">
-        <v>99</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
+    <row r="54" spans="2:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="B54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="1">
+        <v>90</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="2:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="B55" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="1">
+        <v>90</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="B56" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" s="1">
+        <v>90</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="B57" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="1">
+        <v>90</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="B58" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="1">
+        <v>90</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="2:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="B59" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="1">
+        <v>99</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="1">
+        <v>99</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="1">
+        <v>99</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="1">
+        <v>99</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="2:8" ht="48" x14ac:dyDescent="0.3">
+      <c r="B63" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C63" s="1">
+        <v>99</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="1">
+        <v>99</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="1">
+        <v>99</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="1">
+        <v>99</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="1">
+        <v>99</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="1">
+        <v>99</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:H53" xr:uid="{2B6067F9-C26D-4418-B088-E359E9A10B8A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H53">
-      <sortCondition ref="C3:C53"/>
-      <sortCondition ref="B3:B53"/>
+  <autoFilter ref="B2:H68" xr:uid="{2B6067F9-C26D-4418-B088-E359E9A10B8A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H68">
+      <sortCondition ref="C3:C68"/>
+      <sortCondition ref="B3:B68"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H53">
-    <sortCondition ref="C3:C53"/>
-    <sortCondition ref="B3:B53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H68">
+    <sortCondition ref="C3:C68"/>
+    <sortCondition ref="B3:B68"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2453,10 +2948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747EEE2C-5093-4F4F-9001-C9F1317CAF05}">
-  <dimension ref="B2:K108"/>
+  <dimension ref="B2:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2527,7 +3022,7 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1">
-        <f>VLOOKUP(B3,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B3,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K3" s="1"/>
@@ -2556,7 +3051,7 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
-        <f>VLOOKUP(B4,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B4,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K4" s="1"/>
@@ -2583,7 +3078,7 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
-        <f>VLOOKUP(B5,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B5,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K5" s="1"/>
@@ -2610,7 +3105,7 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
-        <f>VLOOKUP(B6,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B6,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K6" s="1"/>
@@ -2637,7 +3132,7 @@
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
-        <f>VLOOKUP(B7,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B7,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K7" s="1"/>
@@ -2664,7 +3159,7 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1">
-        <f>VLOOKUP(B8,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B8,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K8" s="1"/>
@@ -2691,7 +3186,7 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1">
-        <f>VLOOKUP(B9,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B9,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -2722,7 +3217,7 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1">
-        <f>VLOOKUP(B10,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B10,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K10" s="1"/>
@@ -2751,7 +3246,7 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
-        <f>VLOOKUP(B11,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B11,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K11" s="1"/>
@@ -2780,7 +3275,7 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1">
-        <f>VLOOKUP(B12,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B12,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K12" s="1"/>
@@ -2801,7 +3296,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1">
-        <f>VLOOKUP(B13,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B13,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="K13" s="1"/>
@@ -2830,7 +3325,7 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1">
-        <f>VLOOKUP(B14,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B14,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K14" s="1"/>
@@ -2859,7 +3354,7 @@
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1">
-        <f>VLOOKUP(B15,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B15,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K15" s="1"/>
@@ -2888,7 +3383,7 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1">
-        <f>VLOOKUP(B16,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B16,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K16" s="6" t="s">
@@ -2919,7 +3414,7 @@
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1">
-        <f>VLOOKUP(B17,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B17,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K17" s="1"/>
@@ -2948,7 +3443,7 @@
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1">
-        <f>VLOOKUP(B18,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B18,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K18" s="1"/>
@@ -2973,7 +3468,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
-        <f>VLOOKUP(B19,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B19,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K19" s="1"/>
@@ -2998,7 +3493,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1">
-        <f>VLOOKUP(B20,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B20,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K20" s="1"/>
@@ -3015,7 +3510,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1">
-        <f>VLOOKUP(B21,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B21,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="K21" s="1"/>
@@ -3044,7 +3539,7 @@
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1">
-        <f>VLOOKUP(B22,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B22,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="K22" s="1"/>
@@ -3073,7 +3568,7 @@
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1">
-        <f>VLOOKUP(B23,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B23,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="K23" s="1"/>
@@ -3102,7 +3597,7 @@
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1">
-        <f>VLOOKUP(B24,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B24,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="K24" s="1"/>
@@ -3131,7 +3626,7 @@
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1">
-        <f>VLOOKUP(B25,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B25,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K25" s="1"/>
@@ -3160,7 +3655,7 @@
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1">
-        <f>VLOOKUP(B26,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B26,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K26" s="1"/>
@@ -3189,7 +3684,7 @@
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1">
-        <f>VLOOKUP(B27,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B27,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="K27" s="1"/>
@@ -3218,7 +3713,7 @@
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1">
-        <f>VLOOKUP(B28,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B28,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="K28" s="1"/>
@@ -3247,7 +3742,7 @@
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1">
-        <f>VLOOKUP(B29,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B29,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="K29" s="1"/>
@@ -3276,256 +3771,213 @@
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1">
-        <f>VLOOKUP(B30,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B30,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>20</v>
       </c>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="2:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>153</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1">
-        <f>VLOOKUP(B31,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>20</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>157</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1">
-        <f>VLOOKUP(B32,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>20</v>
-      </c>
+      <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="2"/>
       <c r="G33" s="3"/>
       <c r="H33" s="4"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1">
-        <f>VLOOKUP(B33,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>20</v>
-      </c>
+      <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="3"/>
       <c r="H34" s="4"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1">
-        <f>VLOOKUP(B34,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>20</v>
-      </c>
+      <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="F35" s="2"/>
       <c r="G35" s="3"/>
       <c r="H35" s="4"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1">
-        <f>VLOOKUP(B35,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>20</v>
-      </c>
+      <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="7"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1">
-        <f>VLOOKUP(B36,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>30</v>
-      </c>
+      <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>133</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1">
-        <f>VLOOKUP(B37,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>31</v>
-      </c>
+      <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>163</v>
+      <c r="G38" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1">
-        <f>VLOOKUP(B38,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>31</v>
-      </c>
-      <c r="K38" s="1"/>
+        <f>VLOOKUP(B38,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>98</v>
+        <v>304</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="7"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1">
-        <f>VLOOKUP(B39,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>31</v>
-      </c>
-      <c r="K39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="6"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>168</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1">
-        <f>VLOOKUP(B40,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>31</v>
-      </c>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>151</v>
@@ -3533,483 +3985,457 @@
       <c r="F41" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>170</v>
+      <c r="G41" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1">
-        <f>VLOOKUP(B41,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>31</v>
+        <f>VLOOKUP(B41,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>21</v>
       </c>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>172</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="4"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1">
-        <f>VLOOKUP(B42,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>31</v>
+        <f>VLOOKUP(B42,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>21</v>
       </c>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>174</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="4"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1">
-        <f>VLOOKUP(B43,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>31</v>
+        <f>VLOOKUP(B43,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>21</v>
       </c>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>176</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1">
-        <f>VLOOKUP(B44,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>31</v>
+        <f>VLOOKUP(B44,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>21</v>
       </c>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="2:11" ht="48" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="7"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1">
-        <f>VLOOKUP(B45,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>31</v>
+        <f>VLOOKUP(B45,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>30</v>
       </c>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="2:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1">
-        <f>VLOOKUP(B46,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B46,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>182</v>
+        <v>162</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1">
-        <f>VLOOKUP(B47,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B47,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>183</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="7"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1">
-        <f>VLOOKUP(B48,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B48,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>120</v>
+        <v>151</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1">
-        <f>VLOOKUP(B49,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B49,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>31</v>
       </c>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>170</v>
+      </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1">
-        <f>VLOOKUP(B50,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>40</v>
+        <f>VLOOKUP(B50,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>31</v>
       </c>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1">
-        <f>VLOOKUP(B51,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>40</v>
+        <f>VLOOKUP(B51,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>31</v>
       </c>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1">
-        <f>VLOOKUP(B52,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>40</v>
+        <f>VLOOKUP(B52,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>31</v>
       </c>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="2:11" ht="48" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>121</v>
+        <v>137</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1">
-        <f>VLOOKUP(B53,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>40</v>
+        <f>VLOOKUP(B53,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>31</v>
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="2:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:11" ht="48" x14ac:dyDescent="0.3">
       <c r="B54" s="5" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1">
-        <f>VLOOKUP(B54,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B54,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B55" s="5" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="4" t="s">
-        <v>16</v>
+        <v>180</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1">
-        <f>VLOOKUP(B55,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>40</v>
+        <f>VLOOKUP(B55,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>31</v>
       </c>
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="5" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4" t="s">
-        <v>102</v>
+        <v>137</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1">
-        <f>VLOOKUP(B56,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>40</v>
+        <f>VLOOKUP(B56,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>31</v>
       </c>
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="4" t="s">
-        <v>185</v>
+        <v>119</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1">
-        <f>VLOOKUP(B57,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>40</v>
+        <f>VLOOKUP(B57,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>31</v>
       </c>
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="5" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="4" t="s">
-        <v>187</v>
+        <v>119</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1">
-        <f>VLOOKUP(B58,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>40</v>
+        <f>VLOOKUP(B58,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>31</v>
       </c>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="2:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" s="5" t="s">
         <v>40</v>
       </c>
@@ -4017,146 +4443,184 @@
         <v>10</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>188</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="4"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1">
-        <f>VLOOKUP(B59,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B59,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>40</v>
       </c>
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="F60" s="2"/>
       <c r="G60" s="3"/>
       <c r="H60" s="4"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1">
-        <f>VLOOKUP(B60,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>90</v>
+        <f>VLOOKUP(B60,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>40</v>
       </c>
       <c r="K60" s="1"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="7"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="4"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1">
-        <f>VLOOKUP(B61,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>90</v>
+        <f>VLOOKUP(B61,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>40</v>
       </c>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:11" ht="48" x14ac:dyDescent="0.3">
       <c r="B62" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1">
-        <f>VLOOKUP(B62,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>90</v>
+        <f>VLOOKUP(B62,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>40</v>
       </c>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B63" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1">
-        <f>VLOOKUP(B63,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>90</v>
-      </c>
-      <c r="K63" s="1"/>
+        <f>VLOOKUP(B63,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="5" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1">
-        <f>VLOOKUP(B64,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>99</v>
+        <f>VLOOKUP(B64,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>40</v>
       </c>
       <c r="K64" s="1"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" s="5" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1">
-        <f>VLOOKUP(B65,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>99</v>
+        <f>VLOOKUP(B65,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>40</v>
       </c>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="2:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B66" s="5" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>13</v>
@@ -4164,558 +4628,643 @@
       <c r="F66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="G66" s="3"/>
       <c r="H66" s="4" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1">
-        <f>VLOOKUP(B66,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>99</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>125</v>
-      </c>
+        <f>VLOOKUP(B66,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="K66" s="1"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B67" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G67" s="3"/>
-      <c r="H67" s="4"/>
+      <c r="H67" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1">
-        <f>VLOOKUP(B67,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>99</v>
+        <f>VLOOKUP(B67,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>40</v>
       </c>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B68" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1">
-        <f>VLOOKUP(B68,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>99</v>
+        <f>VLOOKUP(B68,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>40</v>
       </c>
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" s="5" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="2"/>
+      <c r="F69" s="1"/>
       <c r="G69" s="3"/>
       <c r="H69" s="4"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1">
-        <f>VLOOKUP(B69,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>99</v>
+        <f>VLOOKUP(B69,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>90</v>
       </c>
       <c r="K69" s="1"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="7"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1">
-        <f>VLOOKUP(B70,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>31</v>
+        <f>VLOOKUP(B70,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>90</v>
       </c>
       <c r="K70" s="1"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>133</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="4"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1">
-        <f>VLOOKUP(B71,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>31</v>
+        <f>VLOOKUP(B71,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>90</v>
       </c>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="2:11" ht="48" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B72" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="4"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1">
-        <f>VLOOKUP(B72,컴포넌트!$B$3:$C$53,2,FALSE)</f>
-        <v>99</v>
+        <f>VLOOKUP(B72,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>90</v>
       </c>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="2:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B73" s="5" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="7"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1">
-        <f>VLOOKUP(B73,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B73,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>99</v>
       </c>
-      <c r="K73" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="K73" s="1"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="7"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="4"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1">
-        <f>VLOOKUP(B74,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B74,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B75" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1">
-        <f>VLOOKUP(B75,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B75,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>99</v>
       </c>
-      <c r="K75" s="1"/>
+      <c r="K75" s="6" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B76" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="2"/>
       <c r="G76" s="3"/>
       <c r="H76" s="4"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1">
-        <f>VLOOKUP(B76,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B76,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K76" s="1"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B77" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="2"/>
+      <c r="F77" s="1"/>
       <c r="G77" s="3"/>
       <c r="H77" s="4"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1">
-        <f>VLOOKUP(B77,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B77,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K77" s="1"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B78" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4" t="s">
-        <v>102</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="4"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1">
-        <f>VLOOKUP(B78,컴포넌트!$B$3:$C$53,2,FALSE)</f>
+        <f>VLOOKUP(B78,컴포넌트!$B$3:$C$68,2,FALSE)</f>
         <v>99</v>
       </c>
       <c r="K78" s="1"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="5" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4" t="s">
-        <v>186</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="7"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
+      <c r="J79" s="1">
+        <f>VLOOKUP(B79,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>31</v>
+      </c>
       <c r="K79" s="1"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B80" s="5" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>144</v>
+        <v>119</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
+      <c r="J80" s="1">
+        <f>VLOOKUP(B80,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>31</v>
+      </c>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:11" ht="48" x14ac:dyDescent="0.3">
       <c r="B81" s="5" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>146</v>
+        <v>120</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
+      <c r="J81" s="1">
+        <f>VLOOKUP(B81,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>99</v>
+      </c>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B82" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>161</v>
+        <v>13</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
+      <c r="J82" s="1">
+        <f>VLOOKUP(B82,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>99</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B83" s="5" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F83" s="2">
-        <v>56</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>112</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="7"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
+      <c r="J83" s="1">
+        <f>VLOOKUP(B83,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>99</v>
+      </c>
       <c r="K83" s="1"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B84" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F84" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1">
+        <f>VLOOKUP(B84,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>99</v>
+      </c>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B85" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="3"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1">
+        <f>VLOOKUP(B85,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>99</v>
+      </c>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B86" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1">
+        <f>VLOOKUP(B86,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>99</v>
+      </c>
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B87" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1">
+        <f>VLOOKUP(B87,컴포넌트!$B$3:$C$68,2,FALSE)</f>
+        <v>99</v>
+      </c>
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B88" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B89" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="7"/>
+      <c r="G89" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="7"/>
+      <c r="B90" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="7"/>
+      <c r="B91" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="7"/>
+      <c r="B92" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F92" s="2">
+        <v>56</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="7"/>
+      <c r="B93" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
@@ -4849,19 +5398,127 @@
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
     </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:K108" xr:uid="{03B4B64D-AFD4-4CDD-A8D2-D6EB040BD7CB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K84">
-    <sortCondition ref="J3:J84"/>
-    <sortCondition ref="B3:B84"/>
+  <autoFilter ref="B2:K117" xr:uid="{03B4B64D-AFD4-4CDD-A8D2-D6EB040BD7CB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K93">
+    <sortCondition ref="J3:J93"/>
+    <sortCondition ref="B3:B93"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K16" r:id="rId1" xr:uid="{66AAD082-9832-4D42-B028-FEE1A5B37DDD}"/>
-    <hyperlink ref="K54" r:id="rId2" xr:uid="{7898C891-5DEF-4B8C-AF61-5DBA89AB3A8B}"/>
-    <hyperlink ref="K66" r:id="rId3" xr:uid="{67A9C962-B934-420D-B2D3-C47981A08372}"/>
-    <hyperlink ref="K73" r:id="rId4" xr:uid="{8DCEADEB-6546-4B2D-9CA1-DC7B12C82D93}"/>
-    <hyperlink ref="K31" r:id="rId5" location="active-class" xr:uid="{BBBF91D4-D2AE-4BAA-9363-02A50591D940}"/>
+    <hyperlink ref="K63" r:id="rId2" xr:uid="{7898C891-5DEF-4B8C-AF61-5DBA89AB3A8B}"/>
+    <hyperlink ref="K75" r:id="rId3" xr:uid="{67A9C962-B934-420D-B2D3-C47981A08372}"/>
+    <hyperlink ref="K82" r:id="rId4" xr:uid="{8DCEADEB-6546-4B2D-9CA1-DC7B12C82D93}"/>
+    <hyperlink ref="K38" r:id="rId5" location="active-class" xr:uid="{BBBF91D4-D2AE-4BAA-9363-02A50591D940}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
